--- a/media/rmg_download_fiz.xlsx
+++ b/media/rmg_download_fiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22115B8-29D1-E641-92EF-A4E5CA85B64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155C2EA6-FAC0-3D4A-92AF-C7C76C534C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="760" windowWidth="20820" windowHeight="14360" xr2:uid="{ED866EA8-637B-4A18-9E36-ACF0F4474D22}"/>
+    <workbookView xWindow="9120" yWindow="2040" windowWidth="20820" windowHeight="14360" xr2:uid="{ED866EA8-637B-4A18-9E36-ACF0F4474D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>АКТ</t>
   </si>
@@ -84,6 +84,33 @@
   </si>
   <si>
     <t xml:space="preserve">Итого:  к оплате     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      СОГЛАСОВАНО:</t>
+  </si>
+  <si>
+    <t>СОГЛАСОВАНО:</t>
+  </si>
+  <si>
+    <t>Исполнительный директор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Генеральный директор </t>
+  </si>
+  <si>
+    <t>ТОО "Кузет - Сенім"</t>
+  </si>
+  <si>
+    <t>ТОО «RMG GROUP»</t>
+  </si>
+  <si>
+    <t>_______________Иванова Л.В.</t>
+  </si>
+  <si>
+    <t>________________Гадаборшев Х.С.</t>
+  </si>
+  <si>
+    <t>"31" августа 2024г.</t>
   </si>
 </sst>
 </file>
@@ -222,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -304,13 +331,17 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -625,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811DEEEC-4E35-4A4D-A02D-1E0DD01C321F}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -647,7 +678,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="36"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -662,164 +693,184 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="B2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="B3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="7"/>
-    </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="4"/>
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
@@ -829,11 +880,11 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
@@ -845,7 +896,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="4"/>
@@ -859,7 +910,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="4"/>
@@ -873,7 +924,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="28"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="4"/>
@@ -887,7 +938,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="4"/>
@@ -915,7 +966,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="4"/>
@@ -929,7 +980,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="4"/>
@@ -943,7 +994,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="8"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="4"/>
@@ -955,9 +1006,9 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="4"/>
@@ -966,12 +1017,12 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
-      <c r="L21" s="11"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="4"/>
@@ -980,11 +1031,11 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
-      <c r="L22" s="11"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -994,11 +1045,11 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
-      <c r="L23" s="11"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1008,11 +1059,11 @@
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
-      <c r="L24" s="11"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -1025,137 +1076,132 @@
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="4"/>
       <c r="G26" s="8"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="15"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="26">
-        <f>SUM(F6:F26)</f>
+      <c r="A27" s="10"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="26">
+        <f>SUM(F11:F31)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="17" t="s">
+      <c r="G32" s="26"/>
+      <c r="H32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="18">
-        <f>ROUND(SUM(L6:L26),0)</f>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="18">
+        <f>ROUND(SUM(L11:L31),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="19"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="21">
-        <f>L27</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
       <c r="K33" s="32"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="19"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="32"/>
@@ -1167,8 +1213,13 @@
       <c r="A35" s="1"/>
       <c r="B35" s="32"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="21">
+        <f>L32</f>
+        <v>0</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1181,8 +1232,8 @@
       <c r="A36" s="1"/>
       <c r="B36" s="32"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1195,8 +1246,8 @@
       <c r="A37" s="1"/>
       <c r="B37" s="32"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1208,10 +1259,10 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="32"/>
@@ -1221,11 +1272,11 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="32"/>
@@ -1235,7 +1286,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1247,12 +1298,82 @@
       <c r="K40" s="32"/>
       <c r="L40" s="1"/>
     </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/media/rmg_download_fiz.xlsx
+++ b/media/rmg_download_fiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155C2EA6-FAC0-3D4A-92AF-C7C76C534C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA989BA-747F-3247-A72A-FACD9E021DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="2040" windowWidth="20820" windowHeight="14360" xr2:uid="{ED866EA8-637B-4A18-9E36-ACF0F4474D22}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{ED866EA8-637B-4A18-9E36-ACF0F4474D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>АКТ</t>
   </si>
@@ -110,7 +110,7 @@
     <t>________________Гадаборшев Х.С.</t>
   </si>
   <si>
-    <t>"31" августа 2024г.</t>
+    <t>Примечание</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -336,12 +336,24 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -656,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811DEEEC-4E35-4A4D-A02D-1E0DD01C321F}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -675,10 +687,11 @@
     <col min="9" max="10" width="5.5" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="35"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -691,97 +704,93 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -797,23 +806,23 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -827,7 +836,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -864,8 +873,11 @@
       <c r="L10" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="27"/>
       <c r="C11" s="4"/>
@@ -878,8 +890,9 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="27"/>
       <c r="C12" s="4"/>
@@ -892,8 +905,9 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="28"/>
       <c r="C13" s="8"/>
@@ -906,8 +920,9 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="28"/>
       <c r="C14" s="8"/>
@@ -920,8 +935,9 @@
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="28"/>
       <c r="C15" s="8"/>
@@ -934,8 +950,9 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="28"/>
       <c r="C16" s="8"/>
@@ -948,8 +965,9 @@
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="28"/>
       <c r="C17" s="6"/>
@@ -962,8 +980,9 @@
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="39"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="28"/>
       <c r="C18" s="6"/>
@@ -976,8 +995,9 @@
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="39"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="28"/>
       <c r="C19" s="6"/>
@@ -990,8 +1010,9 @@
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
       <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="39"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="28"/>
       <c r="C20" s="6"/>
@@ -1004,8 +1025,9 @@
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="39"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="28"/>
       <c r="C21" s="6"/>
@@ -1018,8 +1040,9 @@
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="39"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="28"/>
       <c r="C22" s="6"/>
@@ -1032,8 +1055,9 @@
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="39"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8"/>
@@ -1046,8 +1070,9 @@
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="39"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="28"/>
       <c r="C24" s="8"/>
@@ -1060,8 +1085,9 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="39"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="28"/>
       <c r="C25" s="8"/>
@@ -1074,8 +1100,9 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="39"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="29"/>
       <c r="C26" s="8"/>
@@ -1088,8 +1115,9 @@
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="39"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="29"/>
       <c r="C27" s="8"/>
@@ -1102,8 +1130,9 @@
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="39"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="29"/>
       <c r="C28" s="8"/>
@@ -1116,8 +1145,9 @@
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="39"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="29"/>
       <c r="C29" s="8"/>
@@ -1130,8 +1160,9 @@
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
       <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="39"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="29"/>
       <c r="C30" s="8"/>
@@ -1144,8 +1175,9 @@
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="39"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="30"/>
       <c r="C31" s="13"/>
@@ -1158,8 +1190,9 @@
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
       <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="40"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="31"/>
       <c r="C32" s="16"/>
@@ -1180,6 +1213,7 @@
         <f>ROUND(SUM(L11:L31),0)</f>
         <v>0</v>
       </c>
+      <c r="M32" s="41"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
@@ -1259,10 +1293,10 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="32"/>
@@ -1273,10 +1307,10 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="32"/>
@@ -1369,11 +1403,12 @@
       <c r="L45" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A8:L8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/media/rmg_download_fiz.xlsx
+++ b/media/rmg_download_fiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA989BA-747F-3247-A72A-FACD9E021DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81A6C8-69DD-6142-A4A4-3EFC72FDCD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{ED866EA8-637B-4A18-9E36-ACF0F4474D22}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{ED866EA8-637B-4A18-9E36-ACF0F4474D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>АКТ</t>
-  </si>
-  <si>
-    <t>сверки по объектам физ. лиц</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>№ объекта</t>
   </si>
@@ -78,12 +72,6 @@
   </si>
   <si>
     <t>Сумма в месяц</t>
-  </si>
-  <si>
-    <t>Итого:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Итого:  к оплате     </t>
   </si>
   <si>
     <t xml:space="preserve">      СОГЛАСОВАНО:</t>
@@ -249,12 +237,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,20 +324,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811DEEEC-4E35-4A4D-A02D-1E0DD01C321F}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -691,7 +673,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="35"/>
+      <c r="A1" s="34"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -706,98 +688,96 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="B2" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="B3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="B4" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
+      <c r="B5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -805,11 +785,10 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>1</v>
-      </c>
+      <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -821,6 +800,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -837,541 +817,528 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>24</v>
+      <c r="M10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="39"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="39"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="39"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="39"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="39"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="39"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="39"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="39"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="39"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="39"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="39"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="39"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="39"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="39"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="39"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="39"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="39"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="39"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="39"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="39"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="40"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="26">
-        <f>SUM(F11:F31)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="18">
-        <f>ROUND(SUM(L11:L31),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="41"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="36"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="32"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="19"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="32"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="32"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="21">
-        <f>L32</f>
-        <v>0</v>
-      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="32"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="32"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="24"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="32"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="32"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="32"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="32"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="32"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="32"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1383,9 +1350,9 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1397,9 +1364,9 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
       <c r="L45" s="1"/>
     </row>
   </sheetData>
